--- a/Financials/Markel Group.xlsx
+++ b/Financials/Markel Group.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Financials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD307C07-144D-024D-AC06-1D5605FAED1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A579B7E-85D9-874A-A4BE-1AFD52EEB93C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="40960" windowHeight="22540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -2932,13 +2932,9 @@
       <sheetName val="Industrials"/>
       <sheetName val="Commodities"/>
       <sheetName val="US Treasury Bonds"/>
-      <sheetName val="Growth"/>
-      <sheetName val="Full Portfolio (Concentrated)"/>
-      <sheetName val="Value"/>
-      <sheetName val="Concentrated"/>
-      <sheetName val="Watchlist"/>
-      <sheetName val="Wide Moats"/>
-      <sheetName val="Sheet2"/>
+      <sheetName val="High Growth"/>
+      <sheetName val="GARP"/>
+      <sheetName val="Highest Quality"/>
       <sheetName val="GARP HF Buys"/>
       <sheetName val="Value HF Buys"/>
       <sheetName val="Aggressive Growth HF Buys"/>
@@ -2955,7 +2951,7 @@
       <sheetData sheetId="7">
         <row r="8">
           <cell r="C8">
-            <v>4.845E-2</v>
+            <v>4.8750000000000002E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -2966,10 +2962,6 @@
       <sheetData sheetId="12"/>
       <sheetData sheetId="13"/>
       <sheetData sheetId="14"/>
-      <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
-      <sheetData sheetId="18"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -3096,12 +3088,12 @@
     <v>1</v>
     <v>Powered by Refinitiv</v>
     <v>1560</v>
-    <v>1182.1300000000001</v>
-    <v>0.75180000000000002</v>
-    <v>-28.89</v>
-    <v>-1.9772000000000001E-2</v>
-    <v>-0.25</v>
-    <v>-1.7459999999999999E-4</v>
+    <v>1186.5603000000001</v>
+    <v>0.74809999999999999</v>
+    <v>-191.86</v>
+    <v>-0.12853400000000001</v>
+    <v>8.6999999999999993</v>
+    <v>6.6860000000000001E-3</v>
     <v>USD</v>
     <v>Markel Group Inc., formerly Markel Corporation, is engaged in providing insurance for bakery equipment, building supplies, and more. The Company’s three-engine system includes insurance, investments, and Markel Ventures. The Company operates the Markel Specialty, Markel International, and Global Reinsurance divisions, as well as State National, a portfolio protection and program services company, and Nephila, an insurance-linked securities investment manager. It manages its fixed-income investments to match the size and duration of its expected future insurance claims while producing interest income. Its Markel Ventures companies include Brahmin, Buckner Heavylift Cranes, CapTech, Costa Farms, Cottrell, Eagle, Ellicott Dredges, Havco, Lansing Building Products, Panel Specialists, Markel Food Group, Metromont, ParkLand Ventures, PartnerMD, RetailData, Rosemont Investment Group, VSC Fire &amp; Security, and Weldship.</v>
     <v>20900</v>
@@ -3109,25 +3101,25 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>4521 Highwoods Parkway, GLEN ALLEN, VA, 23060-6148 US</v>
-    <v>1459.46</v>
+    <v>1434.5755999999999</v>
     <v>Insurance</v>
     <v>Stock</v>
-    <v>45226.963807060158</v>
+    <v>45232.996197592191</v>
     <v>0</v>
-    <v>1425.56</v>
-    <v>18998070000</v>
+    <v>1295.6500000000001</v>
+    <v>17254713881</v>
     <v>Markel Group Inc.</v>
     <v>Markel Group Inc.</v>
-    <v>1454.71</v>
-    <v>10.2257</v>
-    <v>1461.14</v>
-    <v>1432.25</v>
-    <v>1432</v>
+    <v>1430</v>
+    <v>9.3147000000000002</v>
+    <v>1492.68</v>
+    <v>1300.82</v>
+    <v>1310</v>
     <v>13264490</v>
     <v>MKL</v>
     <v>Markel Group Inc. (XNYS:MKL)</v>
-    <v>41049</v>
-    <v>42520</v>
+    <v>179986</v>
+    <v>42735</v>
     <v>1999</v>
   </rv>
   <rv s="2">
@@ -3715,10 +3707,10 @@
   <dimension ref="A1:AV119"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AK94" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AJ94" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AO127" sqref="AO127"/>
+      <selection pane="bottomRight" activeCell="AN131" sqref="AN131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5933,15 +5925,15 @@
       </c>
       <c r="AT16" s="31">
         <f>AU102/AM3</f>
-        <v>1.607961912822683</v>
+        <v>1.4604074380871772</v>
       </c>
       <c r="AU16" s="31">
         <f>AU102/AM28</f>
-        <v>-187.72239953361066</v>
+        <v>-170.49607107496814</v>
       </c>
       <c r="AV16" s="32">
         <f>AU102/AM107</f>
-        <v>7.7393725582854325</v>
+        <v>7.0291697583848327</v>
       </c>
     </row>
     <row r="17" spans="1:48" ht="19" x14ac:dyDescent="0.25">
@@ -6333,15 +6325,15 @@
       </c>
       <c r="AT19" s="31">
         <f>AU102/AN3</f>
-        <v>1.2597354286851004</v>
+        <v>1.1441359247397387</v>
       </c>
       <c r="AU19" s="31">
         <f>AU102/AN28</f>
-        <v>17.053922800718134</v>
+        <v>15.488971167863555</v>
       </c>
       <c r="AV19" s="32">
         <f>AU102/AN107</f>
-        <v>12.665380000000001</v>
+        <v>11.503142587333333</v>
       </c>
     </row>
     <row r="20" spans="1:48" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -6790,11 +6782,11 @@
       </c>
       <c r="AU22" s="44">
         <f>(-1*AM98)/AU102</f>
-        <v>1.8949293270316405E-3</v>
+        <v>2.0863863781387499E-3</v>
       </c>
       <c r="AV22" s="36">
         <f>AN107/AU102</f>
-        <v>7.895538862631836E-2</v>
+        <v>8.6932765755781238E-2</v>
       </c>
     </row>
     <row r="23" spans="1:48" ht="19" x14ac:dyDescent="0.25">
@@ -15861,7 +15853,7 @@
       </c>
       <c r="AU95" s="60">
         <f>'[1]US Treasury Bonds'!$C$8</f>
-        <v>4.845E-2</v>
+        <v>4.8750000000000002E-2</v>
       </c>
     </row>
     <row r="96" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -15993,7 +15985,7 @@
       </c>
       <c r="AU96" s="61" cm="1">
         <f t="array" ref="AU96">_FV(A1,"Beta")</f>
-        <v>0.75180000000000002</v>
+        <v>0.74809999999999999</v>
       </c>
     </row>
     <row r="97" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -16256,7 +16248,7 @@
       </c>
       <c r="AU98" s="59">
         <f>(AU95)+((AU96)*(AU97-AU95))</f>
-        <v>7.5176490000000012E-2</v>
+        <v>7.5120525000000007E-2</v>
       </c>
     </row>
     <row r="99" spans="1:47" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -16649,7 +16641,7 @@
       </c>
       <c r="AU101" s="59">
         <f>AU100/AU104</f>
-        <v>0.17763321217197056</v>
+        <v>0.19213236826769528</v>
       </c>
     </row>
     <row r="102" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -16781,7 +16773,7 @@
       </c>
       <c r="AU102" s="63" cm="1">
         <f t="array" ref="AU102">_FV(A1,"Market cap",TRUE)</f>
-        <v>18998070000</v>
+        <v>17254713881</v>
       </c>
     </row>
     <row r="103" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -16913,7 +16905,7 @@
       </c>
       <c r="AU103" s="59">
         <f>AU102/AU104</f>
-        <v>0.82236678782802941</v>
+        <v>0.80786763173230469</v>
       </c>
     </row>
     <row r="104" spans="1:47" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -17047,7 +17039,7 @@
       </c>
       <c r="AU104" s="64">
         <f>AU100+AU102</f>
-        <v>23101699000</v>
+        <v>21358342881</v>
       </c>
     </row>
     <row r="105" spans="1:47" ht="21" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
@@ -17416,7 +17408,7 @@
       </c>
       <c r="AU106" s="65">
         <f>(AU101*AU93)+(AU103*AU98)</f>
-        <v>7.3025796296959364E-2</v>
+        <v>7.2805035486258288E-2</v>
       </c>
     </row>
     <row r="107" spans="1:47" ht="19" x14ac:dyDescent="0.25">
@@ -17609,7 +17601,7 @@
       <c r="AQ108" s="57"/>
       <c r="AR108" s="50">
         <f>AR107*(1+AU108)/(AU109-AU108)</f>
-        <v>43944612327.721451</v>
+        <v>44147545933.87265</v>
       </c>
       <c r="AS108" s="51" t="s">
         <v>152</v>
@@ -17640,7 +17632,7 @@
       </c>
       <c r="AR109" s="50">
         <f>AR108+AR107</f>
-        <v>46003612327.721451</v>
+        <v>46206545933.87265</v>
       </c>
       <c r="AS109" s="51" t="s">
         <v>150</v>
@@ -17650,7 +17642,7 @@
       </c>
       <c r="AU109" s="26">
         <f>AU106</f>
-        <v>7.3025796296959364E-2</v>
+        <v>7.2805035486258288E-2</v>
       </c>
     </row>
     <row r="110" spans="1:47" ht="19" x14ac:dyDescent="0.2">
@@ -17671,7 +17663,7 @@
       </c>
       <c r="AO111" s="63">
         <f>NPV(AU109,AN109,AO109,AP109,AQ109,AR109)</f>
-        <v>38269793598.57267</v>
+        <v>38448941060.676468</v>
       </c>
       <c r="AP111" s="46"/>
       <c r="AQ111" s="46"/>
@@ -17716,7 +17708,7 @@
       </c>
       <c r="AO114" s="63">
         <f>AO111+AO112-AO113</f>
-        <v>34194031598.57267</v>
+        <v>34373179060.676468</v>
       </c>
       <c r="AP114" s="46"/>
       <c r="AQ114" s="46"/>
@@ -17746,7 +17738,7 @@
       </c>
       <c r="AO116" s="71">
         <f>AO114/AO115</f>
-        <v>2515.0125602047083</v>
+        <v>2528.1890736562154</v>
       </c>
       <c r="AP116" s="46"/>
       <c r="AQ116" s="46"/>
@@ -17761,7 +17753,7 @@
       </c>
       <c r="AO117" s="72" cm="1">
         <f t="array" ref="AO117">_FV(A1,"Price")</f>
-        <v>1432.25</v>
+        <v>1300.82</v>
       </c>
       <c r="AP117" s="46"/>
       <c r="AQ117" s="46"/>
@@ -17776,7 +17768,7 @@
       </c>
       <c r="AO118" s="73">
         <f>AO116/AO117-1</f>
-        <v>0.75598712529565937</v>
+        <v>0.94353490387310734</v>
       </c>
       <c r="AP118" s="46"/>
       <c r="AQ118" s="46"/>

--- a/Financials/Markel Group.xlsx
+++ b/Financials/Markel Group.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Financials/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Documents/financial-modeling/Financials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A579B7E-85D9-874A-A4BE-1AFD52EEB93C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9924470D-AD1C-D449-96E5-779C24AC073D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="40960" windowHeight="22540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4140" yWindow="500" windowWidth="28800" windowHeight="16080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -2934,6 +2934,7 @@
       <sheetName val="US Treasury Bonds"/>
       <sheetName val="High Growth"/>
       <sheetName val="GARP"/>
+      <sheetName val="Watchlist"/>
       <sheetName val="Highest Quality"/>
       <sheetName val="GARP HF Buys"/>
       <sheetName val="Value HF Buys"/>
@@ -2951,7 +2952,7 @@
       <sheetData sheetId="7">
         <row r="8">
           <cell r="C8">
-            <v>4.8750000000000002E-2</v>
+            <v>4.5710000000000001E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -2962,6 +2963,7 @@
       <sheetData sheetId="12"/>
       <sheetData sheetId="13"/>
       <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -3089,11 +3091,11 @@
     <v>Powered by Refinitiv</v>
     <v>1560</v>
     <v>1186.5603000000001</v>
-    <v>0.74809999999999999</v>
-    <v>-191.86</v>
-    <v>-0.12853400000000001</v>
-    <v>8.6999999999999993</v>
-    <v>6.6860000000000001E-3</v>
+    <v>0.72150000000000003</v>
+    <v>10.87</v>
+    <v>8.1589999999999996E-3</v>
+    <v>0</v>
+    <v>0</v>
     <v>USD</v>
     <v>Markel Group Inc., formerly Markel Corporation, is engaged in providing insurance for bakery equipment, building supplies, and more. The Company’s three-engine system includes insurance, investments, and Markel Ventures. The Company operates the Markel Specialty, Markel International, and Global Reinsurance divisions, as well as State National, a portfolio protection and program services company, and Nephila, an insurance-linked securities investment manager. It manages its fixed-income investments to match the size and duration of its expected future insurance claims while producing interest income. Its Markel Ventures companies include Brahmin, Buckner Heavylift Cranes, CapTech, Costa Farms, Cottrell, Eagle, Ellicott Dredges, Havco, Lansing Building Products, Panel Specialists, Markel Food Group, Metromont, ParkLand Ventures, PartnerMD, RetailData, Rosemont Investment Group, VSC Fire &amp; Security, and Weldship.</v>
     <v>20900</v>
@@ -3101,25 +3103,25 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>4521 Highwoods Parkway, GLEN ALLEN, VA, 23060-6148 US</v>
-    <v>1434.5755999999999</v>
+    <v>1357.18</v>
     <v>Insurance</v>
     <v>Stock</v>
-    <v>45232.996197592191</v>
+    <v>45239.888896284378</v>
     <v>0</v>
-    <v>1295.6500000000001</v>
-    <v>17254713881</v>
+    <v>1325</v>
+    <v>17815403874</v>
     <v>Markel Group Inc.</v>
     <v>Markel Group Inc.</v>
-    <v>1430</v>
-    <v>9.3147000000000002</v>
-    <v>1492.68</v>
-    <v>1300.82</v>
-    <v>1310</v>
+    <v>1329.38</v>
+    <v>9.5360999999999994</v>
+    <v>1332.22</v>
+    <v>1343.09</v>
+    <v>1343.09</v>
     <v>13264490</v>
     <v>MKL</v>
     <v>Markel Group Inc. (XNYS:MKL)</v>
-    <v>179986</v>
-    <v>42735</v>
+    <v>57392</v>
+    <v>58227</v>
     <v>1999</v>
   </rv>
   <rv s="2">
@@ -3284,9 +3286,9 @@
       <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq Last Sale</v>
+      <v>Source: Nasdaq</v>
       <v>GMT</v>
-      <v>Real-Time Nasdaq Last Sale</v>
+      <v>Delayed 15 minutes</v>
       <v>from close</v>
       <v>from close</v>
     </spb>
@@ -3707,10 +3709,10 @@
   <dimension ref="A1:AV119"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AJ94" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AJ95" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AN131" sqref="AN131"/>
+      <selection pane="bottomRight" activeCell="AM121" sqref="AM121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5925,15 +5927,15 @@
       </c>
       <c r="AT16" s="31">
         <f>AU102/AM3</f>
-        <v>1.4604074380871772</v>
+        <v>1.5078632140499366</v>
       </c>
       <c r="AU16" s="31">
         <f>AU102/AM28</f>
-        <v>-170.49607107496814</v>
+        <v>-176.03632178887977</v>
       </c>
       <c r="AV16" s="32">
         <f>AU102/AM107</f>
-        <v>7.0291697583848327</v>
+        <v>7.2575818415874656</v>
       </c>
     </row>
     <row r="17" spans="1:48" ht="19" x14ac:dyDescent="0.25">
@@ -6325,15 +6327,15 @@
       </c>
       <c r="AT19" s="31">
         <f>AU102/AN3</f>
-        <v>1.1441359247397387</v>
+        <v>1.1813144933359856</v>
       </c>
       <c r="AU19" s="31">
         <f>AU102/AN28</f>
-        <v>15.488971167863555</v>
+        <v>15.992283549371633</v>
       </c>
       <c r="AV19" s="32">
         <f>AU102/AN107</f>
-        <v>11.503142587333333</v>
+        <v>11.876935916000001</v>
       </c>
     </row>
     <row r="20" spans="1:48" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -6782,11 +6784,11 @@
       </c>
       <c r="AU22" s="44">
         <f>(-1*AM98)/AU102</f>
-        <v>2.0863863781387499E-3</v>
+        <v>2.0207232041783126E-3</v>
       </c>
       <c r="AV22" s="36">
         <f>AN107/AU102</f>
-        <v>8.6932765755781238E-2</v>
+        <v>8.4196800174096351E-2</v>
       </c>
     </row>
     <row r="23" spans="1:48" ht="19" x14ac:dyDescent="0.25">
@@ -15853,7 +15855,7 @@
       </c>
       <c r="AU95" s="60">
         <f>'[1]US Treasury Bonds'!$C$8</f>
-        <v>4.8750000000000002E-2</v>
+        <v>4.5710000000000001E-2</v>
       </c>
     </row>
     <row r="96" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -15985,7 +15987,7 @@
       </c>
       <c r="AU96" s="61" cm="1">
         <f t="array" ref="AU96">_FV(A1,"Beta")</f>
-        <v>0.74809999999999999</v>
+        <v>0.72150000000000003</v>
       </c>
     </row>
     <row r="97" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -16248,7 +16250,7 @@
       </c>
       <c r="AU98" s="59">
         <f>(AU95)+((AU96)*(AU97-AU95))</f>
-        <v>7.5120525000000007E-2</v>
+        <v>7.3336235E-2</v>
       </c>
     </row>
     <row r="99" spans="1:47" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -16641,7 +16643,7 @@
       </c>
       <c r="AU101" s="59">
         <f>AU100/AU104</f>
-        <v>0.19213236826769528</v>
+        <v>0.18721761236407733</v>
       </c>
     </row>
     <row r="102" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -16773,7 +16775,7 @@
       </c>
       <c r="AU102" s="63" cm="1">
         <f t="array" ref="AU102">_FV(A1,"Market cap",TRUE)</f>
-        <v>17254713881</v>
+        <v>17815403874</v>
       </c>
     </row>
     <row r="103" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -16905,7 +16907,7 @@
       </c>
       <c r="AU103" s="59">
         <f>AU102/AU104</f>
-        <v>0.80786763173230469</v>
+        <v>0.8127823876359227</v>
       </c>
     </row>
     <row r="104" spans="1:47" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -17039,7 +17041,7 @@
       </c>
       <c r="AU104" s="64">
         <f>AU100+AU102</f>
-        <v>21358342881</v>
+        <v>21919032874</v>
       </c>
     </row>
     <row r="105" spans="1:47" ht="21" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
@@ -17408,7 +17410,7 @@
       </c>
       <c r="AU106" s="65">
         <f>(AU101*AU93)+(AU103*AU98)</f>
-        <v>7.2805035486258288E-2</v>
+        <v>7.1414026341176232E-2</v>
       </c>
     </row>
     <row r="107" spans="1:47" ht="19" x14ac:dyDescent="0.25">
@@ -17601,7 +17603,7 @@
       <c r="AQ108" s="57"/>
       <c r="AR108" s="50">
         <f>AR107*(1+AU108)/(AU109-AU108)</f>
-        <v>44147545933.87265</v>
+        <v>45470629599.908051</v>
       </c>
       <c r="AS108" s="51" t="s">
         <v>152</v>
@@ -17632,7 +17634,7 @@
       </c>
       <c r="AR109" s="50">
         <f>AR108+AR107</f>
-        <v>46206545933.87265</v>
+        <v>47529629599.908051</v>
       </c>
       <c r="AS109" s="51" t="s">
         <v>150</v>
@@ -17642,7 +17644,7 @@
       </c>
       <c r="AU109" s="26">
         <f>AU106</f>
-        <v>7.2805035486258288E-2</v>
+        <v>7.1414026341176232E-2</v>
       </c>
     </row>
     <row r="110" spans="1:47" ht="19" x14ac:dyDescent="0.2">
@@ -17663,7 +17665,7 @@
       </c>
       <c r="AO111" s="63">
         <f>NPV(AU109,AN109,AO109,AP109,AQ109,AR109)</f>
-        <v>38448941060.676468</v>
+        <v>39616987898.760933</v>
       </c>
       <c r="AP111" s="46"/>
       <c r="AQ111" s="46"/>
@@ -17708,7 +17710,7 @@
       </c>
       <c r="AO114" s="63">
         <f>AO111+AO112-AO113</f>
-        <v>34373179060.676468</v>
+        <v>35541225898.760933</v>
       </c>
       <c r="AP114" s="46"/>
       <c r="AQ114" s="46"/>
@@ -17738,7 +17740,7 @@
       </c>
       <c r="AO116" s="71">
         <f>AO114/AO115</f>
-        <v>2528.1890736562154</v>
+        <v>2614.1003374456673</v>
       </c>
       <c r="AP116" s="46"/>
       <c r="AQ116" s="46"/>
@@ -17753,7 +17755,7 @@
       </c>
       <c r="AO117" s="72" cm="1">
         <f t="array" ref="AO117">_FV(A1,"Price")</f>
-        <v>1300.82</v>
+        <v>1343.09</v>
       </c>
       <c r="AP117" s="46"/>
       <c r="AQ117" s="46"/>
@@ -17768,7 +17770,7 @@
       </c>
       <c r="AO118" s="73">
         <f>AO116/AO117-1</f>
-        <v>0.94353490387310734</v>
+        <v>0.94633296163746849</v>
       </c>
       <c r="AP118" s="46"/>
       <c r="AQ118" s="46"/>

--- a/Financials/Markel Group.xlsx
+++ b/Financials/Markel Group.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Documents/financial-modeling/Financials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E65E44E-177D-C04D-ABF1-FC62688F7905}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A88B684-F889-294A-8EEF-9896A0808446}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1786,10 +1786,12 @@
       <sheetName val="Financials"/>
       <sheetName val="Healthcare"/>
       <sheetName val="Industrials"/>
-      <sheetName val="Commodities"/>
+      <sheetName val="Basic Materials"/>
       <sheetName val="US Treasury Bonds"/>
-      <sheetName val="High Growth"/>
-      <sheetName val="GARP"/>
+      <sheetName val="Fidelity"/>
+      <sheetName val="Schwab"/>
+      <sheetName val="Top Consumer Stocks"/>
+      <sheetName val="Dividend Portfolio"/>
       <sheetName val="Watchlist"/>
       <sheetName val="Small + Speculative"/>
       <sheetName val="Highest Quality"/>
@@ -1809,7 +1811,7 @@
       <sheetData sheetId="7">
         <row r="8">
           <cell r="C8">
-            <v>4.2709999999999998E-2</v>
+            <v>4.1210000000000004E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -1822,6 +1824,8 @@
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
       <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1949,11 +1953,11 @@
     <v>Powered by Refinitiv</v>
     <v>1560</v>
     <v>1186.5603000000001</v>
-    <v>0.69269999999999998</v>
-    <v>-14.09</v>
-    <v>-9.7909999999999994E-3</v>
-    <v>-0.3</v>
-    <v>-2.1049999999999999E-4</v>
+    <v>0.69469999999999998</v>
+    <v>7.82</v>
+    <v>5.7239999999999999E-3</v>
+    <v>4</v>
+    <v>2.9110000000000004E-3</v>
     <v>USD</v>
     <v>Markel Group Inc., formerly Markel Corporation, is engaged in providing insurance for bakery equipment, building supplies, and more. The Company’s three-engine system includes insurance, investments, and Markel Ventures. The Company operates the Markel Specialty, Markel International, and Global Reinsurance divisions, as well as State National, a portfolio protection and program services company, and Nephila, an insurance-linked securities investment manager. It manages its fixed-income investments to match the size and duration of its expected future insurance claims while producing interest income. Its Markel Ventures companies include Brahmin, Buckner Heavylift Cranes, CapTech, Costa Farms, Cottrell, Eagle, Ellicott Dredges, Havco, Lansing Building Products, Panel Specialists, Markel Food Group, Metromont, ParkLand Ventures, PartnerMD, RetailData, Rosemont Investment Group, VSC Fire &amp; Security, and Weldship.</v>
     <v>20900</v>
@@ -1961,25 +1965,25 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>4521 Highwoods Parkway, GLEN ALLEN, VA, 23060-6148 US</v>
-    <v>1445.88</v>
+    <v>1374.06</v>
     <v>Insurance</v>
     <v>Stock</v>
-    <v>45261.926196423439</v>
+    <v>45269.017473020314</v>
     <v>0</v>
-    <v>1421.32</v>
-    <v>18836410000</v>
+    <v>1353.5</v>
+    <v>18058900000</v>
     <v>Markel Group Inc.</v>
     <v>Markel Group Inc.</v>
-    <v>1431.74</v>
-    <v>10.301</v>
-    <v>1439.09</v>
-    <v>1425</v>
-    <v>1424.7</v>
+    <v>1368.13</v>
+    <v>9.7790999999999997</v>
+    <v>1366.18</v>
+    <v>1374</v>
+    <v>1378</v>
     <v>13218530</v>
     <v>MKL</v>
     <v>Markel Group Inc. (XNYS:MKL)</v>
-    <v>71003</v>
-    <v>84426</v>
+    <v>56343</v>
+    <v>90164</v>
     <v>1999</v>
   </rv>
   <rv s="2">
@@ -14164,7 +14168,7 @@
   <dimension ref="A1:R110"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -14181,7 +14185,7 @@
     <row r="3" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="35" cm="1">
         <f t="array" ref="A3">_FV(A1,"Market cap",TRUE)</f>
-        <v>18836410000</v>
+        <v>18058900000</v>
       </c>
       <c r="B3" s="36" t="s">
         <v>201</v>
@@ -14201,22 +14205,22 @@
         <v>203</v>
       </c>
       <c r="G3" s="38">
-        <f>AVERAGE(Financials!N129:S129)</f>
-        <v>-4.246990024273996E-3</v>
+        <f>AVERAGE(Financials!K129:O129)</f>
+        <v>-8.8267680491849639E-3</v>
       </c>
       <c r="H3" s="37" t="s">
         <v>204</v>
       </c>
       <c r="I3" s="102">
         <f>J15*(1+I7)/(I6-I7)</f>
-        <v>45734650218.343933</v>
+        <v>46417677746.797714</v>
       </c>
       <c r="J3" s="39" t="s">
         <v>205</v>
       </c>
       <c r="K3" s="97">
         <f>(Financials!O173*-1)/Model!A3</f>
-        <v>9.5559610350379924E-4</v>
+        <v>9.9673845029320729E-4</v>
       </c>
       <c r="L3" s="40" t="s">
         <v>206</v>
@@ -14254,21 +14258,21 @@
       </c>
       <c r="G4" s="45">
         <f>A5*(1+(5*G3))</f>
-        <v>12937835.174772168</v>
+        <v>12635145.508694036</v>
       </c>
       <c r="H4" s="44" t="s">
         <v>211</v>
       </c>
       <c r="I4" s="103">
         <f>NPV(I6,F15,G15,H15,I15,(J15+I3))</f>
-        <v>40814451162.111328</v>
+        <v>41432222806.774849</v>
       </c>
       <c r="J4" s="44" t="s">
         <v>212</v>
       </c>
       <c r="K4" s="98" cm="1">
         <f t="array" ref="K4">_FV(A1,"Change (%)",TRUE)</f>
-        <v>-9.7909999999999994E-3</v>
+        <v>5.7239999999999999E-3</v>
       </c>
       <c r="L4" s="46" t="s">
         <v>213</v>
@@ -14313,14 +14317,14 @@
       </c>
       <c r="I5" s="103">
         <f>I4+G5-G6</f>
-        <v>56091171162.111328</v>
+        <v>56708942806.774849</v>
       </c>
       <c r="J5" s="44" t="s">
         <v>219</v>
       </c>
       <c r="K5" s="99" cm="1">
         <f t="array" ref="K5">_FV(A1,"Price")</f>
-        <v>1425</v>
+        <v>1374</v>
       </c>
       <c r="L5" s="48" t="s">
         <v>220</v>
@@ -14340,7 +14344,7 @@
     <row r="6" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="51">
         <f>O20/F10</f>
-        <v>1.2622401661864235</v>
+        <v>1.2101387120552167</v>
       </c>
       <c r="B6" s="43" t="s">
         <v>222</v>
@@ -14368,14 +14372,14 @@
       </c>
       <c r="I6" s="105">
         <f>N25</f>
-        <v>6.6768478381017168E-2</v>
+        <v>6.6080288886222069E-2</v>
       </c>
       <c r="J6" s="44" t="s">
         <v>225</v>
       </c>
       <c r="K6" s="100">
         <f>I5/G4/2</f>
-        <v>2167.7185713219246</v>
+        <v>2244.0953595569736</v>
       </c>
       <c r="L6" s="52" t="s">
         <v>226</v>
@@ -14395,14 +14399,14 @@
     <row r="7" spans="1:18" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="53">
         <f>O20/F12</f>
-        <v>16.954464446444643</v>
+        <v>16.254635463546354</v>
       </c>
       <c r="B7" s="54" t="s">
         <v>228</v>
       </c>
       <c r="C7" s="110">
         <f>F15/A3</f>
-        <v>9.0250743108692161E-2</v>
+        <v>9.4136409194358464E-2</v>
       </c>
       <c r="D7" s="54" t="s">
         <v>229</v>
@@ -14429,7 +14433,7 @@
       </c>
       <c r="K7" s="101">
         <f>K6/K5-1</f>
-        <v>0.5212060149627542</v>
+        <v>0.63325717580565755</v>
       </c>
       <c r="L7" s="58" t="s">
         <v>232</v>
@@ -14756,7 +14760,7 @@
       </c>
       <c r="O14" s="77">
         <f>'[1]US Treasury Bonds'!$C$8</f>
-        <v>4.2709999999999998E-2</v>
+        <v>4.1210000000000004E-2</v>
       </c>
       <c r="P14" s="41"/>
       <c r="Q14" s="41"/>
@@ -14908,7 +14912,7 @@
       </c>
       <c r="O17" s="87">
         <f>(O14)+((O15)*(O16-O14))</f>
-        <v>9.762570000000001E-2</v>
+        <v>9.8120700000000005E-2</v>
       </c>
       <c r="P17" s="41"/>
       <c r="Q17" s="41"/>
@@ -14991,7 +14995,7 @@
       </c>
       <c r="O20" s="93">
         <f>A3</f>
-        <v>18836410000</v>
+        <v>18058900000</v>
       </c>
       <c r="P20" s="41"/>
       <c r="Q20" s="41"/>
@@ -15021,7 +15025,7 @@
       </c>
       <c r="O21" s="93">
         <f>O19+O20</f>
-        <v>22650327000</v>
+        <v>21872817000</v>
       </c>
       <c r="P21" s="41"/>
       <c r="Q21" s="41"/>
@@ -15049,7 +15053,7 @@
       </c>
       <c r="O22" s="95">
         <f>(O19/O21)</f>
-        <v>0.16838242556056696</v>
+        <v>0.17436789234783978</v>
       </c>
       <c r="P22" s="41"/>
       <c r="Q22" s="41"/>
@@ -15074,7 +15078,7 @@
       </c>
       <c r="O23" s="96">
         <f>O20/O21</f>
-        <v>0.83161757443943307</v>
+        <v>0.82563210765216022</v>
       </c>
       <c r="P23" s="41"/>
       <c r="Q23" s="41"/>
@@ -15118,7 +15122,7 @@
       <c r="M25" s="60"/>
       <c r="N25" s="117">
         <f>(O22*O12)+(O23*O17)</f>
-        <v>6.6768478381017168E-2</v>
+        <v>6.6080288886222069E-2</v>
       </c>
       <c r="O25" s="118"/>
       <c r="P25" s="41"/>
